--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnc-Ptprb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnc-Ptprb.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.996239666666667</v>
+        <v>7.759382333333334</v>
       </c>
       <c r="H2">
-        <v>17.988719</v>
+        <v>23.278147</v>
       </c>
       <c r="I2">
-        <v>0.02748578043016502</v>
+        <v>0.03884312320086166</v>
       </c>
       <c r="J2">
-        <v>0.02925508126773497</v>
+        <v>0.04014625174390325</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>160.469513</v>
+        <v>103.7041626666667</v>
       </c>
       <c r="N2">
-        <v>481.408539</v>
+        <v>311.112488</v>
       </c>
       <c r="O2">
-        <v>0.9881921872772522</v>
+        <v>0.9879014414010097</v>
       </c>
       <c r="P2">
-        <v>0.9908580394792582</v>
+        <v>0.9902837487998425</v>
       </c>
       <c r="Q2">
-        <v>962.2136591412824</v>
+        <v>804.6802476888596</v>
       </c>
       <c r="R2">
-        <v>8659.922932271542</v>
+        <v>7242.122229199736</v>
       </c>
       <c r="S2">
-        <v>0.02716123348230707</v>
+        <v>0.03837317739864823</v>
       </c>
       <c r="T2">
-        <v>0.02898763246975424</v>
+        <v>0.03975618067721472</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.996239666666667</v>
+        <v>7.759382333333334</v>
       </c>
       <c r="H3">
-        <v>17.988719</v>
+        <v>23.278147</v>
       </c>
       <c r="I3">
-        <v>0.02748578043016502</v>
+        <v>0.03884312320086166</v>
       </c>
       <c r="J3">
-        <v>0.02925508126773497</v>
+        <v>0.04014625174390325</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.170729</v>
       </c>
       <c r="O3">
-        <v>0.00240316728411606</v>
+        <v>0.003717513475672384</v>
       </c>
       <c r="P3">
-        <v>0.002409650323426259</v>
+        <v>0.003726478195721577</v>
       </c>
       <c r="Q3">
-        <v>2.339990556239</v>
+        <v>3.028044639907001</v>
       </c>
       <c r="R3">
-        <v>21.059915006151</v>
+        <v>27.252401759163</v>
       </c>
       <c r="S3">
-        <v>6.605292830817002E-05</v>
+        <v>0.0001443998339364058</v>
       </c>
       <c r="T3">
-        <v>7.049451603865905E-05</v>
+        <v>0.0001496041317636048</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.996239666666667</v>
+        <v>7.759382333333334</v>
       </c>
       <c r="H4">
-        <v>17.988719</v>
+        <v>23.278147</v>
       </c>
       <c r="I4">
-        <v>0.02748578043016502</v>
+        <v>0.03884312320086166</v>
       </c>
       <c r="J4">
-        <v>0.02925508126773497</v>
+        <v>0.04014625174390325</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1305423333333333</v>
+        <v>0.09991866666666667</v>
       </c>
       <c r="N4">
-        <v>0.3916270000000001</v>
+        <v>0.299756</v>
       </c>
       <c r="O4">
-        <v>0.0008038967121994246</v>
+        <v>0.0009518402375047094</v>
       </c>
       <c r="P4">
-        <v>0.0008060653893535185</v>
+        <v>0.0009541355839282337</v>
       </c>
       <c r="Q4">
-        <v>0.7827631173125557</v>
+        <v>0.7753071369035556</v>
       </c>
       <c r="R4">
-        <v>7.044868055813001</v>
+        <v>6.977764232132</v>
       </c>
       <c r="S4">
-        <v>2.209572852004495E-05</v>
+        <v>3.697244761293285E-05</v>
       </c>
       <c r="T4">
-        <v>2.358150847264561E-05</v>
+        <v>3.8304967350199E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.996239666666667</v>
+        <v>7.759382333333334</v>
       </c>
       <c r="H5">
-        <v>17.988719</v>
+        <v>23.278147</v>
       </c>
       <c r="I5">
-        <v>0.02748578043016502</v>
+        <v>0.03884312320086166</v>
       </c>
       <c r="J5">
-        <v>0.02925508126773497</v>
+        <v>0.04014625174390325</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.310681</v>
+        <v>0.7576035</v>
       </c>
       <c r="N5">
-        <v>2.621362</v>
+        <v>1.515207</v>
       </c>
       <c r="O5">
-        <v>0.008071344518960036</v>
+        <v>0.007217044816861706</v>
       </c>
       <c r="P5">
-        <v>0.005395412423470593</v>
+        <v>0.004822965731185187</v>
       </c>
       <c r="Q5">
-        <v>7.859157402546335</v>
+        <v>5.8785352135715</v>
       </c>
       <c r="R5">
-        <v>47.15494441527801</v>
+        <v>35.271211281429</v>
       </c>
       <c r="S5">
-        <v>0.0002218472032243515</v>
+        <v>0.0002803325609674993</v>
       </c>
       <c r="T5">
-        <v>0.0001578432289215791</v>
+        <v>0.000193623996396379</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.996239666666667</v>
+        <v>7.759382333333334</v>
       </c>
       <c r="H6">
-        <v>17.988719</v>
+        <v>23.278147</v>
       </c>
       <c r="I6">
-        <v>0.02748578043016502</v>
+        <v>0.03884312320086166</v>
       </c>
       <c r="J6">
-        <v>0.02925508126773497</v>
+        <v>0.04014625174390325</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.08596833333333335</v>
+        <v>0.02227133333333333</v>
       </c>
       <c r="N6">
-        <v>0.2579050000000001</v>
+        <v>0.066814</v>
       </c>
       <c r="O6">
-        <v>0.0005294042074723976</v>
+        <v>0.0002121600689515461</v>
       </c>
       <c r="P6">
-        <v>0.0005308323844914146</v>
+        <v>0.0002126716893225857</v>
       </c>
       <c r="Q6">
-        <v>0.5154867304105557</v>
+        <v>0.1728117904064445</v>
       </c>
       <c r="R6">
-        <v>4.639380573695001</v>
+        <v>1.555306113658</v>
       </c>
       <c r="S6">
-        <v>1.455108780539185E-05</v>
+        <v>8.240959696588211E-06</v>
       </c>
       <c r="T6">
-        <v>1.552954454784187E-05</v>
+        <v>8.537971178345707E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>517.298425</v>
       </c>
       <c r="I7">
-        <v>0.7904037483947683</v>
+        <v>0.8631909770948131</v>
       </c>
       <c r="J7">
-        <v>0.8412832210590593</v>
+        <v>0.8921497401307179</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>160.469513</v>
+        <v>103.7041626666667</v>
       </c>
       <c r="N7">
-        <v>481.408539</v>
+        <v>311.112488</v>
       </c>
       <c r="O7">
-        <v>0.9881921872772522</v>
+        <v>0.9879014414010097</v>
       </c>
       <c r="P7">
-        <v>0.9908580394792582</v>
+        <v>0.9902837487998425</v>
       </c>
       <c r="Q7">
-        <v>27670.20877847234</v>
+        <v>17882.00000447016</v>
       </c>
       <c r="R7">
-        <v>249031.8790062511</v>
+        <v>160938.0000402314</v>
       </c>
       <c r="S7">
-        <v>0.7810708089583651</v>
+        <v>0.8527476104763118</v>
       </c>
       <c r="T7">
-        <v>0.8335922430653748</v>
+        <v>0.8834813891474526</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>517.298425</v>
       </c>
       <c r="I8">
-        <v>0.7904037483947683</v>
+        <v>0.8631909770948131</v>
       </c>
       <c r="J8">
-        <v>0.8412832210590593</v>
+        <v>0.8921497401307179</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>1.170729</v>
       </c>
       <c r="O8">
-        <v>0.00240316728411606</v>
+        <v>0.003717513475672384</v>
       </c>
       <c r="P8">
-        <v>0.002409650323426259</v>
+        <v>0.003726478195721577</v>
       </c>
       <c r="Q8">
         <v>67.29069642242501</v>
@@ -948,10 +948,10 @@
         <v>605.616267801825</v>
       </c>
       <c r="S8">
-        <v>0.001899472429385009</v>
+        <v>0.00320892408942878</v>
       </c>
       <c r="T8">
-        <v>0.002027198385718047</v>
+        <v>0.003324576553915792</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>517.298425</v>
       </c>
       <c r="I9">
-        <v>0.7904037483947683</v>
+        <v>0.8631909770948131</v>
       </c>
       <c r="J9">
-        <v>0.8412832210590593</v>
+        <v>0.8921497401307179</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1305423333333333</v>
+        <v>0.09991866666666667</v>
       </c>
       <c r="N9">
-        <v>0.3916270000000001</v>
+        <v>0.299756</v>
       </c>
       <c r="O9">
-        <v>0.0008038967121994246</v>
+        <v>0.0009518402375047094</v>
       </c>
       <c r="P9">
-        <v>0.0008060653893535185</v>
+        <v>0.0009541355839282337</v>
       </c>
       <c r="Q9">
-        <v>22.50978114305278</v>
+        <v>17.22925629825556</v>
       </c>
       <c r="R9">
-        <v>202.588030287475</v>
+        <v>155.0633066843</v>
       </c>
       <c r="S9">
-        <v>0.0006354029746446554</v>
+        <v>0.0008216199046498491</v>
       </c>
       <c r="T9">
-        <v>0.0006781292871395528</v>
+        <v>0.0008512318132510445</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>517.298425</v>
       </c>
       <c r="I10">
-        <v>0.7904037483947683</v>
+        <v>0.8631909770948131</v>
       </c>
       <c r="J10">
-        <v>0.8412832210590593</v>
+        <v>0.8921497401307179</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.310681</v>
+        <v>0.7576035</v>
       </c>
       <c r="N10">
-        <v>2.621362</v>
+        <v>1.515207</v>
       </c>
       <c r="O10">
-        <v>0.008071344518960036</v>
+        <v>0.007217044816861706</v>
       </c>
       <c r="P10">
-        <v>0.005395412423470593</v>
+        <v>0.004822965731185187</v>
       </c>
       <c r="Q10">
-        <v>226.0044056591417</v>
+        <v>130.6356991081625</v>
       </c>
       <c r="R10">
-        <v>1356.02643395485</v>
+        <v>783.8141946489749</v>
       </c>
       <c r="S10">
-        <v>0.006379620962371581</v>
+        <v>0.006229687967203912</v>
       </c>
       <c r="T10">
-        <v>0.004539069942559406</v>
+        <v>0.004302807623736223</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>517.298425</v>
       </c>
       <c r="I11">
-        <v>0.7904037483947683</v>
+        <v>0.8631909770948131</v>
       </c>
       <c r="J11">
-        <v>0.8412832210590593</v>
+        <v>0.8921497401307179</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.08596833333333335</v>
+        <v>0.02227133333333333</v>
       </c>
       <c r="N11">
-        <v>0.2579050000000001</v>
+        <v>0.066814</v>
       </c>
       <c r="O11">
-        <v>0.0005294042074723976</v>
+        <v>0.0002121600689515461</v>
       </c>
       <c r="P11">
-        <v>0.0005308323844914146</v>
+        <v>0.0002126716893225857</v>
       </c>
       <c r="Q11">
-        <v>14.82376114440278</v>
+        <v>3.840308551994444</v>
       </c>
       <c r="R11">
-        <v>133.413850299625</v>
+        <v>34.56277696794999</v>
       </c>
       <c r="S11">
-        <v>0.0004184430700021447</v>
+        <v>0.000183134657218788</v>
       </c>
       <c r="T11">
-        <v>0.0004465803782673983</v>
+        <v>0.0001897349923623056</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.08681966666666667</v>
+        <v>0.05240566666666666</v>
       </c>
       <c r="H12">
-        <v>0.260459</v>
+        <v>0.157217</v>
       </c>
       <c r="I12">
-        <v>0.0003979671306811982</v>
+        <v>0.0002623404388789996</v>
       </c>
       <c r="J12">
-        <v>0.0004235848707133055</v>
+        <v>0.0002711415672571033</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>160.469513</v>
+        <v>103.7041626666667</v>
       </c>
       <c r="N12">
-        <v>481.408539</v>
+        <v>311.112488</v>
       </c>
       <c r="O12">
-        <v>0.9881921872772522</v>
+        <v>0.9879014414010097</v>
       </c>
       <c r="P12">
-        <v>0.9908580394792582</v>
+        <v>0.9902837487998425</v>
       </c>
       <c r="Q12">
-        <v>13.93190962882233</v>
+        <v>5.43468578065511</v>
       </c>
       <c r="R12">
-        <v>125.387186659401</v>
+        <v>48.912172025896</v>
       </c>
       <c r="S12">
-        <v>0.0003932680093323053</v>
+        <v>0.0002591664977063372</v>
       </c>
       <c r="T12">
-        <v>0.0004197124745480609</v>
+        <v>0.0002685070876788289</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.08681966666666667</v>
+        <v>0.05240566666666666</v>
       </c>
       <c r="H13">
-        <v>0.260459</v>
+        <v>0.157217</v>
       </c>
       <c r="I13">
-        <v>0.0003979671306811982</v>
+        <v>0.0002623404388789996</v>
       </c>
       <c r="J13">
-        <v>0.0004235848707133055</v>
+        <v>0.0002711415672571033</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>1.170729</v>
       </c>
       <c r="O13">
-        <v>0.00240316728411606</v>
+        <v>0.003717513475672384</v>
       </c>
       <c r="P13">
-        <v>0.002409650323426259</v>
+        <v>0.003726478195721577</v>
       </c>
       <c r="Q13">
-        <v>0.03388076717900001</v>
+        <v>0.020450944577</v>
       </c>
       <c r="R13">
-        <v>0.304926904611</v>
+        <v>0.184058501193</v>
       </c>
       <c r="S13">
-        <v>9.563815886065961E-07</v>
+        <v>9.752541167464882E-07</v>
       </c>
       <c r="T13">
-        <v>1.020691420712787E-06</v>
+        <v>1.010403138337371E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.08681966666666667</v>
+        <v>0.05240566666666666</v>
       </c>
       <c r="H14">
-        <v>0.260459</v>
+        <v>0.157217</v>
       </c>
       <c r="I14">
-        <v>0.0003979671306811982</v>
+        <v>0.0002623404388789996</v>
       </c>
       <c r="J14">
-        <v>0.0004235848707133055</v>
+        <v>0.0002711415672571033</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.1305423333333333</v>
+        <v>0.09991866666666667</v>
       </c>
       <c r="N14">
-        <v>0.3916270000000001</v>
+        <v>0.299756</v>
       </c>
       <c r="O14">
-        <v>0.0008038967121994246</v>
+        <v>0.0009518402375047094</v>
       </c>
       <c r="P14">
-        <v>0.0008060653893535185</v>
+        <v>0.0009541355839282337</v>
       </c>
       <c r="Q14">
-        <v>0.01133364186588889</v>
+        <v>0.005236304339111111</v>
       </c>
       <c r="R14">
-        <v>0.102002776793</v>
+        <v>0.047126739052</v>
       </c>
       <c r="S14">
-        <v>3.199244679180539E-07</v>
+        <v>2.497061856496767E-07</v>
       </c>
       <c r="T14">
-        <v>3.414371037357803E-07</v>
+        <v>2.587058176020727E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.08681966666666667</v>
+        <v>0.05240566666666666</v>
       </c>
       <c r="H15">
-        <v>0.260459</v>
+        <v>0.157217</v>
       </c>
       <c r="I15">
-        <v>0.0003979671306811982</v>
+        <v>0.0002623404388789996</v>
       </c>
       <c r="J15">
-        <v>0.0004235848707133055</v>
+        <v>0.0002711415672571033</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.310681</v>
+        <v>0.7576035</v>
       </c>
       <c r="N15">
-        <v>2.621362</v>
+        <v>1.515207</v>
       </c>
       <c r="O15">
-        <v>0.008071344518960036</v>
+        <v>0.007217044816861706</v>
       </c>
       <c r="P15">
-        <v>0.005395412423470593</v>
+        <v>0.004822965731185187</v>
       </c>
       <c r="Q15">
-        <v>0.1137928875263334</v>
+        <v>0.0397027164865</v>
       </c>
       <c r="R15">
-        <v>0.6827573251580001</v>
+        <v>0.238216298919</v>
       </c>
       <c r="S15">
-        <v>3.212129818949941E-06</v>
+        <v>1.893322704664909E-06</v>
       </c>
       <c r="T15">
-        <v>2.285415073840753E-06</v>
+        <v>1.307706487180853E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.08681966666666667</v>
+        <v>0.05240566666666666</v>
       </c>
       <c r="H16">
-        <v>0.260459</v>
+        <v>0.157217</v>
       </c>
       <c r="I16">
-        <v>0.0003979671306811982</v>
+        <v>0.0002623404388789996</v>
       </c>
       <c r="J16">
-        <v>0.0004235848707133055</v>
+        <v>0.0002711415672571033</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.08596833333333335</v>
+        <v>0.02227133333333333</v>
       </c>
       <c r="N16">
-        <v>0.2579050000000001</v>
+        <v>0.066814</v>
       </c>
       <c r="O16">
-        <v>0.0005294042074723976</v>
+        <v>0.0002121600689515461</v>
       </c>
       <c r="P16">
-        <v>0.0005308323844914146</v>
+        <v>0.0002126716893225857</v>
       </c>
       <c r="Q16">
-        <v>0.007463742043888891</v>
+        <v>0.001167144070888889</v>
       </c>
       <c r="R16">
-        <v>0.06717367839500001</v>
+        <v>0.010504296638</v>
       </c>
       <c r="S16">
-        <v>2.106854734183438E-07</v>
+        <v>5.565816560134741E-08</v>
       </c>
       <c r="T16">
-        <v>2.248525669552315E-07</v>
+        <v>5.766413515414165E-08</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>39.5815265</v>
+        <v>19.452549</v>
       </c>
       <c r="H17">
-        <v>79.16305299999999</v>
+        <v>38.905098</v>
       </c>
       <c r="I17">
-        <v>0.1814352339046085</v>
+        <v>0.09737859599105524</v>
       </c>
       <c r="J17">
-        <v>0.1287429943686935</v>
+        <v>0.06709700125311635</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>160.469513</v>
+        <v>103.7041626666667</v>
       </c>
       <c r="N17">
-        <v>481.408539</v>
+        <v>311.112488</v>
       </c>
       <c r="O17">
-        <v>0.9881921872772522</v>
+        <v>0.9879014414010097</v>
       </c>
       <c r="P17">
-        <v>0.9908580394792582</v>
+        <v>0.9902837487998425</v>
       </c>
       <c r="Q17">
-        <v>6351.628281251594</v>
+        <v>2017.310305777304</v>
       </c>
       <c r="R17">
-        <v>38109.76968750956</v>
+        <v>12103.86183466382</v>
       </c>
       <c r="S17">
-        <v>0.1792928806413549</v>
+        <v>0.09620045534117005</v>
       </c>
       <c r="T17">
-        <v>0.1275660309968528</v>
+        <v>0.06644506993416378</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>39.5815265</v>
+        <v>19.452549</v>
       </c>
       <c r="H18">
-        <v>79.16305299999999</v>
+        <v>38.905098</v>
       </c>
       <c r="I18">
-        <v>0.1814352339046085</v>
+        <v>0.09737859599105524</v>
       </c>
       <c r="J18">
-        <v>0.1287429943686935</v>
+        <v>0.06709700125311635</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>1.170729</v>
       </c>
       <c r="O18">
-        <v>0.00240316728411606</v>
+        <v>0.003717513475672384</v>
       </c>
       <c r="P18">
-        <v>0.002409650323426259</v>
+        <v>0.003726478195721577</v>
       </c>
       <c r="Q18">
-        <v>15.4464136459395</v>
+        <v>7.591221079407</v>
       </c>
       <c r="R18">
-        <v>92.678481875637</v>
+        <v>45.547326476442</v>
       </c>
       <c r="S18">
-        <v>0.0004360192183055</v>
+        <v>0.0003620062428388046</v>
       </c>
       <c r="T18">
-        <v>0.0003102255980193873</v>
+        <v>0.0002500355121680414</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>39.5815265</v>
+        <v>19.452549</v>
       </c>
       <c r="H19">
-        <v>79.16305299999999</v>
+        <v>38.905098</v>
       </c>
       <c r="I19">
-        <v>0.1814352339046085</v>
+        <v>0.09737859599105524</v>
       </c>
       <c r="J19">
-        <v>0.1287429943686935</v>
+        <v>0.06709700125311635</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,28 +1612,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.1305423333333333</v>
+        <v>0.09991866666666667</v>
       </c>
       <c r="N19">
-        <v>0.3916270000000001</v>
+        <v>0.299756</v>
       </c>
       <c r="O19">
-        <v>0.0008038967121994246</v>
+        <v>0.0009518402375047094</v>
       </c>
       <c r="P19">
-        <v>0.0008060653893535185</v>
+        <v>0.0009541355839282337</v>
       </c>
       <c r="Q19">
-        <v>5.167064826205166</v>
+        <v>1.943672759348</v>
       </c>
       <c r="R19">
-        <v>31.002388957231</v>
+        <v>11.662036556088</v>
       </c>
       <c r="S19">
-        <v>0.0001458551880130483</v>
+        <v>9.268886593600116E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001037752718823388</v>
+        <v>6.401963647047561E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>39.5815265</v>
+        <v>19.452549</v>
       </c>
       <c r="H20">
-        <v>79.16305299999999</v>
+        <v>38.905098</v>
       </c>
       <c r="I20">
-        <v>0.1814352339046085</v>
+        <v>0.09737859599105524</v>
       </c>
       <c r="J20">
-        <v>0.1287429943686935</v>
+        <v>0.06709700125311635</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.310681</v>
+        <v>0.7576035</v>
       </c>
       <c r="N20">
-        <v>2.621362</v>
+        <v>1.515207</v>
       </c>
       <c r="O20">
-        <v>0.008071344518960036</v>
+        <v>0.007217044816861706</v>
       </c>
       <c r="P20">
-        <v>0.005395412423470593</v>
+        <v>0.004822965731185187</v>
       </c>
       <c r="Q20">
-        <v>51.8787547345465</v>
+        <v>14.7373192063215</v>
       </c>
       <c r="R20">
-        <v>207.515018938186</v>
+        <v>58.94927682528599</v>
       </c>
       <c r="S20">
-        <v>0.001464426280722194</v>
+        <v>0.0007027856914705152</v>
       </c>
       <c r="T20">
-        <v>0.0006946215512516537</v>
+        <v>0.0003236065377090698</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>39.5815265</v>
+        <v>19.452549</v>
       </c>
       <c r="H21">
-        <v>79.16305299999999</v>
+        <v>38.905098</v>
       </c>
       <c r="I21">
-        <v>0.1814352339046085</v>
+        <v>0.09737859599105524</v>
       </c>
       <c r="J21">
-        <v>0.1287429943686935</v>
+        <v>0.06709700125311635</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.08596833333333335</v>
+        <v>0.02227133333333333</v>
       </c>
       <c r="N21">
-        <v>0.2579050000000001</v>
+        <v>0.066814</v>
       </c>
       <c r="O21">
-        <v>0.0005294042074723976</v>
+        <v>0.0002121600689515461</v>
       </c>
       <c r="P21">
-        <v>0.0005308323844914146</v>
+        <v>0.0002126716893225857</v>
       </c>
       <c r="Q21">
-        <v>3.402757863994167</v>
+        <v>0.4332342029619999</v>
       </c>
       <c r="R21">
-        <v>20.416547183965</v>
+        <v>2.599405217772</v>
       </c>
       <c r="S21">
-        <v>9.605257621283833E-05</v>
+        <v>2.065984963986703E-05</v>
       </c>
       <c r="T21">
-        <v>6.834095068729833E-05</v>
+        <v>1.426963260497991E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.06048866666666667</v>
+        <v>0.06491533333333334</v>
       </c>
       <c r="H22">
-        <v>0.181466</v>
+        <v>0.194746</v>
       </c>
       <c r="I22">
-        <v>0.000277270139777064</v>
+        <v>0.0003249632743909987</v>
       </c>
       <c r="J22">
-        <v>0.0002951184337990267</v>
+        <v>0.0003358653050055137</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>160.469513</v>
+        <v>103.7041626666667</v>
       </c>
       <c r="N22">
-        <v>481.408539</v>
+        <v>311.112488</v>
       </c>
       <c r="O22">
-        <v>0.9881921872772522</v>
+        <v>0.9879014414010097</v>
       </c>
       <c r="P22">
-        <v>0.9908580394792582</v>
+        <v>0.9902837487998425</v>
       </c>
       <c r="Q22">
-        <v>9.706586882019334</v>
+        <v>6.731990287560889</v>
       </c>
       <c r="R22">
-        <v>87.35928193817401</v>
+        <v>60.587912588048</v>
       </c>
       <c r="S22">
-        <v>0.0002739961858929663</v>
+        <v>0.0003210316871732595</v>
       </c>
       <c r="T22">
-        <v>0.0002924204727282929</v>
+        <v>0.0003326019533326626</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.06048866666666667</v>
+        <v>0.06491533333333334</v>
       </c>
       <c r="H23">
-        <v>0.181466</v>
+        <v>0.194746</v>
       </c>
       <c r="I23">
-        <v>0.000277270139777064</v>
+        <v>0.0003249632743909987</v>
       </c>
       <c r="J23">
-        <v>0.0002951184337990267</v>
+        <v>0.0003358653050055137</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>1.170729</v>
       </c>
       <c r="O23">
-        <v>0.00240316728411606</v>
+        <v>0.003717513475672384</v>
       </c>
       <c r="P23">
-        <v>0.002409650323426259</v>
+        <v>0.003726478195721577</v>
       </c>
       <c r="Q23">
-        <v>0.02360527874600001</v>
+        <v>0.02533275442600001</v>
       </c>
       <c r="R23">
-        <v>0.212447508714</v>
+        <v>0.227994789834</v>
       </c>
       <c r="S23">
-        <v>6.663265287745272E-07</v>
+        <v>1.20805535164716E-06</v>
       </c>
       <c r="T23">
-        <v>7.111322294528757E-07</v>
+        <v>1.251594735802424E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.06048866666666667</v>
+        <v>0.06491533333333334</v>
       </c>
       <c r="H24">
-        <v>0.181466</v>
+        <v>0.194746</v>
       </c>
       <c r="I24">
-        <v>0.000277270139777064</v>
+        <v>0.0003249632743909987</v>
       </c>
       <c r="J24">
-        <v>0.0002951184337990267</v>
+        <v>0.0003358653050055137</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1922,28 +1922,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.1305423333333333</v>
+        <v>0.09991866666666667</v>
       </c>
       <c r="N24">
-        <v>0.3916270000000001</v>
+        <v>0.299756</v>
       </c>
       <c r="O24">
-        <v>0.0008038967121994246</v>
+        <v>0.0009518402375047094</v>
       </c>
       <c r="P24">
-        <v>0.0008060653893535185</v>
+        <v>0.0009541355839282337</v>
       </c>
       <c r="Q24">
-        <v>0.007896331686888891</v>
+        <v>0.00648625355288889</v>
       </c>
       <c r="R24">
-        <v>0.07106698518200001</v>
+        <v>0.05837628197600001</v>
       </c>
       <c r="S24">
-        <v>2.228965537578566E-07</v>
+        <v>3.093131202766363E-07</v>
       </c>
       <c r="T24">
-        <v>2.378847552456131E-07</v>
+        <v>3.204610389126701E-07</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.06048866666666667</v>
+        <v>0.06491533333333334</v>
       </c>
       <c r="H25">
-        <v>0.181466</v>
+        <v>0.194746</v>
       </c>
       <c r="I25">
-        <v>0.000277270139777064</v>
+        <v>0.0003249632743909987</v>
       </c>
       <c r="J25">
-        <v>0.0002951184337990267</v>
+        <v>0.0003358653050055137</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.310681</v>
+        <v>0.7576035</v>
       </c>
       <c r="N25">
-        <v>2.621362</v>
+        <v>1.515207</v>
       </c>
       <c r="O25">
-        <v>0.008071344518960036</v>
+        <v>0.007217044816861706</v>
       </c>
       <c r="P25">
-        <v>0.005395412423470593</v>
+        <v>0.004822965731185187</v>
       </c>
       <c r="Q25">
-        <v>0.07928134611533336</v>
+        <v>0.049180083737</v>
       </c>
       <c r="R25">
-        <v>0.4756880766920001</v>
+        <v>0.295080502422</v>
       </c>
       <c r="S25">
-        <v>2.237942822960888E-06</v>
+        <v>2.345274515113966E-06</v>
       </c>
       <c r="T25">
-        <v>1.592285664114453E-06</v>
+        <v>1.619866856335653E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.06048866666666667</v>
+        <v>0.06491533333333334</v>
       </c>
       <c r="H26">
-        <v>0.181466</v>
+        <v>0.194746</v>
       </c>
       <c r="I26">
-        <v>0.000277270139777064</v>
+        <v>0.0003249632743909987</v>
       </c>
       <c r="J26">
-        <v>0.0002951184337990267</v>
+        <v>0.0003358653050055137</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.08596833333333335</v>
+        <v>0.02227133333333333</v>
       </c>
       <c r="N26">
-        <v>0.2579050000000001</v>
+        <v>0.066814</v>
       </c>
       <c r="O26">
-        <v>0.0005294042074723976</v>
+        <v>0.0002121600689515461</v>
       </c>
       <c r="P26">
-        <v>0.0005308323844914146</v>
+        <v>0.0002126716893225857</v>
       </c>
       <c r="Q26">
-        <v>0.00520010985888889</v>
+        <v>0.001445751027111111</v>
       </c>
       <c r="R26">
-        <v>0.04680098873000001</v>
+        <v>0.013011759244</v>
       </c>
       <c r="S26">
-        <v>1.467879786044374E-07</v>
+        <v>6.894423070151449E-08</v>
       </c>
       <c r="T26">
-        <v>1.56658421920909E-07</v>
+        <v>7.142904180036809E-08</v>
       </c>
     </row>
   </sheetData>
